--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="13475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -293,19 +298,25 @@
   </si>
   <si>
     <t>ring</t>
+  </si>
+  <si>
+    <t>强化等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化等级:%d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV:%d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,345 +325,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -660,251 +347,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,61 +358,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1225,26 +626,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1300,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1314,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1328,7 +729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1342,7 +743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1356,7 +757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1370,7 +771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1384,7 +785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -1398,7 +799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -1412,7 +813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1008</v>
       </c>
@@ -1426,7 +827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1009</v>
       </c>
@@ -1440,7 +841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1010</v>
       </c>
@@ -1454,7 +855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1011</v>
       </c>
@@ -1468,7 +869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001</v>
       </c>
@@ -1482,7 +883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10002</v>
       </c>
@@ -1496,7 +897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10003</v>
       </c>
@@ -1510,7 +911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10004</v>
       </c>
@@ -1524,7 +925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10005</v>
       </c>
@@ -1538,7 +939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10006</v>
       </c>
@@ -1552,7 +953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10007</v>
       </c>
@@ -1566,7 +967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10008</v>
       </c>
@@ -1580,7 +981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10009</v>
       </c>
@@ -1594,7 +995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10010</v>
       </c>
@@ -1608,7 +1009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10011</v>
       </c>
@@ -1622,7 +1023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10012</v>
       </c>
@@ -1636,7 +1037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10013</v>
       </c>
@@ -1650,7 +1051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10014</v>
       </c>
@@ -1664,7 +1065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10015</v>
       </c>
@@ -1678,7 +1079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10016</v>
       </c>
@@ -1692,7 +1093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10017</v>
       </c>
@@ -1706,7 +1107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10018</v>
       </c>
@@ -1720,7 +1121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10019</v>
       </c>
@@ -1734,7 +1135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10020</v>
       </c>
@@ -1748,7 +1149,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10021</v>
       </c>
@@ -1762,7 +1163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10022</v>
       </c>
@@ -1776,7 +1177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10023</v>
       </c>
@@ -1790,9 +1191,23 @@
         <v>92</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>强化等级:%d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV:%d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前等级:%d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -632,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1205,6 +1217,20 @@
         <v>95</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A2DE6-3185-4938-93FD-2B47D288B706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -321,14 +322,54 @@
   </si>
   <si>
     <t>LV:%d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player level is too low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume goods not enough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegal paramters1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegal paramters2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +380,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -365,8 +414,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,21 +695,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -685,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -699,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -713,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -727,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -741,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -755,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -769,7 +821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -783,7 +835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -797,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -811,7 +863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -825,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1008</v>
       </c>
@@ -839,7 +891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1009</v>
       </c>
@@ -853,7 +905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1010</v>
       </c>
@@ -867,7 +919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1011</v>
       </c>
@@ -881,7 +933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10001</v>
       </c>
@@ -895,7 +947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10002</v>
       </c>
@@ -909,7 +961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10003</v>
       </c>
@@ -923,7 +975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10004</v>
       </c>
@@ -937,7 +989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10005</v>
       </c>
@@ -951,7 +1003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10006</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10007</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10008</v>
       </c>
@@ -993,7 +1045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10009</v>
       </c>
@@ -1007,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10010</v>
       </c>
@@ -1021,7 +1073,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10011</v>
       </c>
@@ -1035,7 +1087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10012</v>
       </c>
@@ -1049,7 +1101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10013</v>
       </c>
@@ -1063,7 +1115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10014</v>
       </c>
@@ -1077,7 +1129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10015</v>
       </c>
@@ -1091,7 +1143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10016</v>
       </c>
@@ -1105,7 +1157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10017</v>
       </c>
@@ -1119,7 +1171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10018</v>
       </c>
@@ -1133,7 +1185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10019</v>
       </c>
@@ -1147,7 +1199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10020</v>
       </c>
@@ -1161,7 +1213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10021</v>
       </c>
@@ -1175,7 +1227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10022</v>
       </c>
@@ -1189,7 +1241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10023</v>
       </c>
@@ -1203,7 +1255,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20001</v>
       </c>
@@ -1217,7 +1269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20101</v>
       </c>
@@ -1229,11 +1281,67 @@
       </c>
       <c r="D41" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>100001</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>100002</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>100003</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>100004</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A2DE6-3185-4938-93FD-2B47D288B706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -55,12 +54,6 @@
     <t>afk_exp</t>
   </si>
   <si>
-    <t>%d/分钟</t>
-  </si>
-  <si>
-    <t>%d/min</t>
-  </si>
-  <si>
     <t>afk_gold</t>
   </si>
   <si>
@@ -305,26 +298,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强化等级:%d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV:%d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前等级:%d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV:%d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色等级不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,13 +339,80 @@
   </si>
   <si>
     <t>illegal paramters2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级提升到{1}级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level up to {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}/分钟</t>
+  </si>
+  <si>
+    <t>{1}/分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}/min</t>
+  </si>
+  <si>
+    <t>强化等级:{1}</t>
+  </si>
+  <si>
+    <t>LV:{1}</t>
+  </si>
+  <si>
+    <t>当前等级:{1}</t>
+  </si>
+  <si>
+    <t>强化成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip Level Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wear Successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸下成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸下成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take off Successfully</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,21 +739,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -751,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -759,584 +803,640 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1001</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1002</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1003</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1004</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1005</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1006</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1007</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1008</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1009</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1010</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1011</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2001</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10001</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10001</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10002</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>10002</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10003</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>10003</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10004</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>10004</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10005</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>10005</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10006</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10006</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10007</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10007</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10008</v>
+      </c>
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10008</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10009</v>
+      </c>
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10009</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10010</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>10010</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10011</v>
+      </c>
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10011</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10012</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>10012</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10013</v>
+      </c>
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10013</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10014</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10014</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10015</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10015</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10016</v>
+      </c>
+      <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10016</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10017</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10017</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10018</v>
+      </c>
+      <c r="B35" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10018</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10019</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10019</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10020</v>
+      </c>
+      <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10020</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10021</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10021</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10022</v>
+      </c>
+      <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10022</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10023</v>
+      </c>
+      <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10023</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20001</v>
+      </c>
+      <c r="B41" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20002</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20003</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20004</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20101</v>
+      </c>
+      <c r="B45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>20001</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>100001</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>100002</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100003</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100004</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>20101</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>100001</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>100002</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>100003</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>100004</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB31878-A0D7-4551-8811-136C8F038A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -406,13 +407,24 @@
   </si>
   <si>
     <t>Take off Successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr12</t>
+  </si>
+  <si>
+    <t>暴击加成: %g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,21 +751,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -781,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -795,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -809,7 +821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -823,7 +835,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -837,7 +849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -851,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -865,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -879,563 +891,577 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1005</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1006</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1007</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1008</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1009</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1010</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1011</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>1012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2001</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>10001</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>10002</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>10003</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>10004</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>10005</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>10006</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>10007</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>10008</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>10009</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>10010</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>10011</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>10012</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>10013</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>10014</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>10015</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>10016</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>10017</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>10018</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>10019</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>81</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>10020</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>10021</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>85</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>10022</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>10023</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>20001</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>20002</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>112</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>20003</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>20004</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>20101</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>111</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>100001</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>100002</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>100003</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>100004</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB31878-A0D7-4551-8811-136C8F038A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -418,13 +417,47 @@
   </si>
   <si>
     <t>暴击加成: %g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oss来袭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oss is coming</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,21 +784,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -793,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -807,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -821,7 +854,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -835,7 +868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -849,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -863,7 +896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -877,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -891,7 +924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -905,7 +938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -919,7 +952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -933,7 +966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1008</v>
       </c>
@@ -947,7 +980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1009</v>
       </c>
@@ -961,7 +994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1010</v>
       </c>
@@ -975,7 +1008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1011</v>
       </c>
@@ -989,7 +1022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1012</v>
       </c>
@@ -1003,465 +1036,479 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>1101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2001</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>10001</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>10002</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10003</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10004</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10005</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>10006</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>10007</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>10008</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>10009</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>10010</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>10011</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>10012</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>10013</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>10014</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>10015</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>10016</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>10017</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>10018</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>10019</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>10020</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>10021</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>10022</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>10023</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>20001</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>20002</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>112</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>20003</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>20004</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>20101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>111</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>100001</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>100002</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>100003</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>100004</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C62E11-89C2-4FC7-BB86-F39E07EF93B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -453,11 +454,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>暂不能种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not plant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,21 +793,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -826,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -840,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -854,7 +863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -868,7 +877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -882,7 +891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -896,7 +905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -910,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -924,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -938,7 +947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -952,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -966,7 +975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1008</v>
       </c>
@@ -980,7 +989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1009</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1010</v>
       </c>
@@ -1008,7 +1017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1011</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1012</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1101</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10001</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10002</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10003</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10004</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10005</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10006</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10007</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10008</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10009</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10010</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10011</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10012</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10013</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10014</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10015</v>
       </c>
@@ -1274,7 +1283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10016</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10017</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10018</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10019</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10020</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10021</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10022</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10023</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20001</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20002</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20003</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20004</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>20101</v>
       </c>
@@ -1456,59 +1465,73 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>30001</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>100001</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>100002</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>100003</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>100004</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C62E11-89C2-4FC7-BB86-F39E07EF93B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -462,11 +461,23 @@
     <t>Can not plant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>暂不能收成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not harvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果实尚未成熟噢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -793,21 +804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -835,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -849,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -863,7 +874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -877,7 +888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -891,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -905,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -919,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -933,7 +944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -947,7 +958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -961,7 +972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -975,7 +986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1008</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1009</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1010</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1011</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1012</v>
       </c>
@@ -1045,7 +1056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1101</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -1073,7 +1084,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10002</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10003</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10004</v>
       </c>
@@ -1129,7 +1140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10005</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10006</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10007</v>
       </c>
@@ -1171,7 +1182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10008</v>
       </c>
@@ -1185,7 +1196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10009</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10010</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10011</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10012</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10013</v>
       </c>
@@ -1255,7 +1266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10014</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10015</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10016</v>
       </c>
@@ -1297,7 +1308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10017</v>
       </c>
@@ -1311,7 +1322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10018</v>
       </c>
@@ -1325,7 +1336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10019</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10020</v>
       </c>
@@ -1353,7 +1364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10021</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10022</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10023</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20001</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20002</v>
       </c>
@@ -1423,7 +1434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20003</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20004</v>
       </c>
@@ -1451,7 +1462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20101</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>30001</v>
       </c>
@@ -1479,59 +1490,73 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>30002</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>100001</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>100002</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>100003</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>100004</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -471,6 +471,30 @@
   </si>
   <si>
     <t>果实尚未成熟噢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能还在努力开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能还在努力开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This function is developing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买确定框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定花费{1}{2}购买{3}吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use {1} {2} to buy {3}?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1086,477 +1110,505 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
+        <v>2002</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10002</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
+        <v>2003</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10012</v>
+        <v>10010</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10015</v>
+        <v>10013</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10019</v>
+        <v>10017</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10020</v>
+        <v>10018</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10022</v>
+        <v>10020</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20001</v>
+        <v>10022</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20002</v>
+        <v>10023</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20003</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>20001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20004</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>20002</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" t="s">
-        <v>110</v>
+        <v>20003</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>30002</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>20101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>100001</v>
+        <v>30001</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>100002</v>
+        <v>30002</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100003</v>
+        <v>100001</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>100002</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100003</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>100004</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -495,6 +495,26 @@
   </si>
   <si>
     <t>use {1} {2} to buy {3}?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将挑战Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将挑战Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时还没有奖励喔,晚点再来吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward is still null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1096,519 +1116,547 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2001</v>
+        <v>1102</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10001</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
+        <v>2003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20001</v>
+        <v>10023</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20003</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>20002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
+        <v>20004</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>30001</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>20101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100001</v>
+        <v>30002</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100002</v>
+        <v>40001</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100003</v>
+        <v>100001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>100002</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>100003</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>100004</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -515,6 +515,34 @@
   </si>
   <si>
     <t>Reward is still null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Challenge Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss is coming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1130,533 +1158,575 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2001</v>
+        <v>1103</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2002</v>
+        <v>1104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2003</v>
+        <v>1105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10001</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
+        <v>2001</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10002</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
+        <v>2002</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10003</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
+        <v>2003</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10008</v>
+        <v>10005</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10009</v>
+        <v>10006</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10010</v>
+        <v>10007</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10011</v>
+        <v>10008</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10012</v>
+        <v>10009</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10013</v>
+        <v>10010</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10014</v>
+        <v>10011</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10015</v>
+        <v>10012</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10016</v>
+        <v>10013</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10017</v>
+        <v>10014</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10018</v>
+        <v>10015</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10019</v>
+        <v>10016</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10020</v>
+        <v>10017</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10021</v>
+        <v>10018</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10022</v>
+        <v>10019</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10023</v>
+        <v>10020</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20001</v>
+        <v>10021</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20002</v>
+        <v>10022</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20003</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>10023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20004</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>20001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20101</v>
+        <v>20002</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>30002</v>
+        <v>20004</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>40001</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>20101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100001</v>
+        <v>30001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100002</v>
+        <v>30002</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100003</v>
+        <v>40001</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>100001</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100002</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100003</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>100004</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6880941-DC14-4EBE-B656-F914A938BD54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -545,11 +546,35 @@
     <t>Fighting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>任务暂时不能领取奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已领取奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未能领取奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not open chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have got</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -876,21 +901,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -918,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -932,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -946,7 +971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -960,7 +985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -974,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -988,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1002,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1016,7 +1041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1030,7 +1055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -1044,7 +1069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -1058,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1008</v>
       </c>
@@ -1072,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1009</v>
       </c>
@@ -1086,7 +1111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1010</v>
       </c>
@@ -1100,7 +1125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1011</v>
       </c>
@@ -1114,7 +1139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1012</v>
       </c>
@@ -1128,7 +1153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1101</v>
       </c>
@@ -1142,7 +1167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1102</v>
       </c>
@@ -1156,7 +1181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1103</v>
       </c>
@@ -1170,7 +1195,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1104</v>
       </c>
@@ -1184,7 +1209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1105</v>
       </c>
@@ -1198,535 +1223,563 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>1201</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1202</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2001</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2002</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2003</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>10001</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>10002</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>10003</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>10004</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>10005</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>10006</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>10007</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>57</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>10008</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>10009</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>10010</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>10011</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>10012</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>10013</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>69</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>10014</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>10015</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>73</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>10016</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>75</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>10017</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>10018</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>10019</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>81</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>10020</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>10021</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>85</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>10022</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>10023</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>89</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>20001</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>91</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>20002</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>20003</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>20004</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>20101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>92</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>111</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>30001</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>30002</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>40001</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>100001</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>100002</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>100003</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>100004</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>96</v>
       </c>
     </row>
